--- a/data_output/prism_passive/all_passive_out_licht_fas_length_GM_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_length_GM_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>63.552911159159365</v>
+        <v>63.552911162808869</v>
       </c>
       <c r="C2">
-        <v>67.094342509467126</v>
+        <v>67.09434250939151</v>
       </c>
       <c r="D2">
-        <v>53.96103079990985</v>
+        <v>53.961030787166294</v>
       </c>
       <c r="E2">
-        <v>69.5065615928618</v>
+        <v>69.5065615841647</v>
       </c>
       <c r="F2">
-        <v>44.024704806425575</v>
+        <v>44.024704791475507</v>
       </c>
       <c r="G2">
-        <v>56.638392331584726</v>
+        <v>56.638392328155419</v>
       </c>
       <c r="H2">
-        <v>48.71495025450411</v>
+        <v>48.714950248012023</v>
       </c>
       <c r="I2">
-        <v>60.142343515018332</v>
+        <v>60.142343513698904</v>
       </c>
       <c r="J2">
-        <v>67.689948526458736</v>
+        <v>67.689948516492393</v>
       </c>
       <c r="K2">
-        <v>54.993783808878689</v>
+        <v>54.993783796796613</v>
       </c>
       <c r="L2">
-        <v>54.951302229006622</v>
+        <v>54.95130222954225</v>
       </c>
       <c r="M2">
-        <v>65.948438006436319</v>
+        <v>65.948438008425086</v>
       </c>
       <c r="N2">
-        <v>62.823794701603603</v>
+        <v>62.823794700812513</v>
       </c>
       <c r="O2">
-        <v>47.597757918143117</v>
+        <v>47.597757901346469</v>
       </c>
       <c r="P2">
-        <v>61.083144849156838</v>
+        <v>61.083144849407738</v>
       </c>
       <c r="Q2">
-        <v>61.957572183659181</v>
+        <v>61.957572177638397</v>
       </c>
       <c r="R2">
-        <v>55.718370157078617</v>
+        <v>55.718370135679095</v>
       </c>
       <c r="S2">
-        <v>84.309858161350832</v>
+        <v>84.309858173100352</v>
       </c>
       <c r="T2">
-        <v>65.522179192479072</v>
+        <v>65.522179205837119</v>
       </c>
       <c r="U2">
-        <v>59.205030969787813</v>
+        <v>59.205030949266856</v>
       </c>
       <c r="V2">
-        <v>50.854280682944236</v>
+        <v>50.854280666116892</v>
       </c>
       <c r="W2">
-        <v>44.150523401270718</v>
+        <v>44.150523392974904</v>
       </c>
       <c r="X2">
-        <v>56.768514437225392</v>
+        <v>56.768514434865892</v>
       </c>
       <c r="Y2">
-        <v>60.75492961617136</v>
+        <v>60.75492960008085</v>
       </c>
       <c r="Z2">
-        <v>61.626800756371836</v>
+        <v>61.626800735623092</v>
       </c>
       <c r="AA2">
-        <v>68.57409688824302</v>
+        <v>68.574096871624789</v>
       </c>
       <c r="AB2">
-        <v>71.636491359061097</v>
+        <v>71.636491331626559</v>
       </c>
       <c r="AC2">
-        <v>51.011550665775061</v>
+        <v>51.011550653960199</v>
       </c>
       <c r="AD2">
-        <v>71.684986763114608</v>
+        <v>71.68498673168267</v>
       </c>
       <c r="AE2">
-        <v>50.326180192172956</v>
+        <v>50.326180178105076</v>
       </c>
       <c r="AF2">
-        <v>59.419836263858386</v>
+        <v>59.419836250143881</v>
       </c>
       <c r="AG2">
-        <v>50.502075107350358</v>
+        <v>50.502075093369697</v>
       </c>
       <c r="AH2">
-        <v>61.682330466245077</v>
+        <v>61.682330451114794</v>
       </c>
       <c r="AI2">
-        <v>74.478502059805962</v>
+        <v>74.478502033228807</v>
       </c>
       <c r="AJ2">
-        <v>56.47214235948816</v>
+        <v>56.472142350914041</v>
       </c>
       <c r="AK2">
-        <v>57.765790049663622</v>
+        <v>57.765790037198954</v>
       </c>
       <c r="AL2">
-        <v>69.180338682776465</v>
+        <v>69.180338669635233</v>
       </c>
       <c r="AM2">
-        <v>61.810427529768461</v>
+        <v>61.810427516813675</v>
       </c>
       <c r="AN2">
-        <v>50.557737315809845</v>
+        <v>50.557737295124724</v>
       </c>
       <c r="AO2">
-        <v>66.455507270896589</v>
+        <v>66.455507260907368</v>
       </c>
       <c r="AP2">
-        <v>67.214948930341535</v>
+        <v>67.214948906797531</v>
       </c>
       <c r="AQ2">
-        <v>56.125127888681369</v>
+        <v>56.125127876082288</v>
       </c>
       <c r="AR2">
-        <v>82.520783774805111</v>
+        <v>82.520783776404258</v>
       </c>
       <c r="AS2">
-        <v>66.137130860820747</v>
+        <v>66.137130838751602</v>
       </c>
       <c r="AT2">
-        <v>66.357901585634806</v>
+        <v>66.357901568511068</v>
       </c>
       <c r="AU2">
-        <v>58.445320549583343</v>
+        <v>58.445320520890981</v>
       </c>
       <c r="AV2">
-        <v>50.251025837293184</v>
+        <v>50.251025811728496</v>
       </c>
       <c r="AW2">
-        <v>56.085993061486469</v>
+        <v>56.085993043515323</v>
       </c>
       <c r="AX2">
-        <v>64.748127432271033</v>
+        <v>64.748127408898569</v>
       </c>
       <c r="AY2">
-        <v>67.368940248630281</v>
+        <v>67.368940230342943</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>65.724717373715237</v>
+        <v>65.724717363904517</v>
       </c>
       <c r="C3">
-        <v>59.117552413188378</v>
+        <v>59.117552394140667</v>
       </c>
       <c r="D3">
-        <v>58.478053757732667</v>
+        <v>58.478053728291606</v>
       </c>
       <c r="E3">
-        <v>63.876193213753389</v>
+        <v>63.876193197590773</v>
       </c>
       <c r="F3">
-        <v>43.148243873184818</v>
+        <v>43.148243859797404</v>
       </c>
       <c r="G3">
-        <v>59.992877310076643</v>
+        <v>59.992877301538357</v>
       </c>
       <c r="H3">
-        <v>43.902073112473062</v>
+        <v>43.902073104630347</v>
       </c>
       <c r="I3">
-        <v>62.611798637338339</v>
+        <v>62.611798628922756</v>
       </c>
       <c r="J3">
-        <v>71.063726466802507</v>
+        <v>71.06372646192176</v>
       </c>
       <c r="K3">
-        <v>65.854501377544381</v>
+        <v>65.854501378203594</v>
       </c>
       <c r="L3">
-        <v>57.91387340211908</v>
+        <v>57.913873393005431</v>
       </c>
       <c r="M3">
-        <v>67.704218654171001</v>
+        <v>67.703940975988786</v>
       </c>
       <c r="N3">
-        <v>62.642462365007731</v>
+        <v>62.642462350993355</v>
       </c>
       <c r="O3">
-        <v>39.805362337832825</v>
+        <v>39.805362318466557</v>
       </c>
       <c r="P3">
-        <v>62.224297190756204</v>
+        <v>62.224297162431427</v>
       </c>
       <c r="Q3">
-        <v>55.519036066566414</v>
+        <v>55.519036059072008</v>
       </c>
       <c r="R3">
-        <v>45.876060725722226</v>
+        <v>45.876060714702433</v>
       </c>
       <c r="S3">
-        <v>75.659243799494334</v>
+        <v>75.659243793325658</v>
       </c>
       <c r="T3">
-        <v>65.332150492783711</v>
+        <v>65.33215047782474</v>
       </c>
       <c r="U3">
-        <v>63.487888975359738</v>
+        <v>63.487888962725677</v>
       </c>
       <c r="V3">
-        <v>57.512084469507734</v>
+        <v>57.51208446029851</v>
       </c>
       <c r="W3">
-        <v>50.071685432460889</v>
+        <v>50.071685421474946</v>
       </c>
       <c r="X3">
-        <v>51.372413257743325</v>
+        <v>51.372413247150035</v>
       </c>
       <c r="Y3">
-        <v>69.976747698091543</v>
+        <v>69.976747675925523</v>
       </c>
       <c r="Z3">
-        <v>66.810870958005069</v>
+        <v>66.810870935038906</v>
       </c>
       <c r="AA3">
-        <v>68.006398750730227</v>
+        <v>68.006398732243269</v>
       </c>
       <c r="AB3">
-        <v>65.738126805921411</v>
+        <v>65.738126781843732</v>
       </c>
       <c r="AC3">
-        <v>57.216878976520505</v>
+        <v>57.216878965281815</v>
       </c>
       <c r="AD3">
-        <v>72.686948013660881</v>
+        <v>72.686947994796526</v>
       </c>
       <c r="AE3">
-        <v>51.814865233792368</v>
+        <v>51.814865226306146</v>
       </c>
       <c r="AF3">
-        <v>61.196691106625877</v>
+        <v>61.196691090252713</v>
       </c>
       <c r="AG3">
-        <v>52.832989334270351</v>
+        <v>52.832989322811173</v>
       </c>
       <c r="AH3">
-        <v>68.199504573432407</v>
+        <v>68.199504559276164</v>
       </c>
       <c r="AI3">
-        <v>90.980048927035412</v>
+        <v>90.980048904285354</v>
       </c>
       <c r="AJ3">
-        <v>58.155890415366294</v>
+        <v>58.155890406930638</v>
       </c>
       <c r="AK3">
-        <v>63.980062478655938</v>
+        <v>63.980062456639573</v>
       </c>
       <c r="AL3">
-        <v>67.951756241184327</v>
+        <v>67.951756216136388</v>
       </c>
       <c r="AM3">
-        <v>66.918869921896217</v>
+        <v>66.918869894826315</v>
       </c>
       <c r="AN3">
-        <v>44.690685751552053</v>
+        <v>44.690685741772199</v>
       </c>
       <c r="AO3">
-        <v>66.564143184682862</v>
+        <v>66.564143143000535</v>
       </c>
       <c r="AP3">
-        <v>55.912878875669882</v>
+        <v>55.912878858752123</v>
       </c>
       <c r="AQ3">
-        <v>53.826365192772847</v>
+        <v>53.826365169360038</v>
       </c>
       <c r="AR3">
-        <v>85.831087091976954</v>
+        <v>85.831087089272984</v>
       </c>
       <c r="AS3">
-        <v>61.299488666816544</v>
+        <v>61.29948865268878</v>
       </c>
       <c r="AT3">
-        <v>64.787703692516516</v>
+        <v>64.78770366485773</v>
       </c>
       <c r="AU3">
-        <v>56.921605772650445</v>
+        <v>56.921605771659358</v>
       </c>
       <c r="AV3">
-        <v>49.188770375242143</v>
+        <v>49.188770356685637</v>
       </c>
       <c r="AW3">
-        <v>53.325522473133333</v>
+        <v>53.325522456994875</v>
       </c>
       <c r="AX3">
-        <v>61.171954832669265</v>
+        <v>61.171954815773375</v>
       </c>
       <c r="AY3">
-        <v>74.31454459245397</v>
+        <v>74.314544561676655</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_licht_fas_length_GM_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_length_GM_common_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>63.552911162808869</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>67.09434250939151</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>53.961030787166294</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>69.5065615841647</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>44.024704791475507</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>56.638392328155419</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>48.714950248012023</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>60.142343513698904</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>67.689948516492393</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>54.993783796796613</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>54.95130222954225</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>65.948438008425086</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>62.823794700812513</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>47.597757901346469</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>61.083144849407738</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>61.957572177638397</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>55.718370135679095</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>84.309858173100352</v>
+        <v>78.335316900804713</v>
       </c>
       <c r="T2">
         <v>65.522179205837119</v>
@@ -588,55 +477,55 @@
         <v>61.626800735623092</v>
       </c>
       <c r="AA2">
-        <v>68.574096871624789</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>71.636491331626559</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>51.011550653960199</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>71.68498673168267</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>50.326180178105076</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>59.419836250143881</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>50.502075093369697</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>61.682330451114794</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>74.478502033228807</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>56.472142350914041</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>57.765790037198954</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>69.180338669635233</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>61.810427516813675</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>50.557737295124724</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>66.455507260907368</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>67.214948906797531</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>56.125127876082288</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>82.520783776404258</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>65.724717363904517</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>59.117552394140667</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>58.478053728291606</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>63.876193197590773</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>43.148243859797404</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>59.992877301538357</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>43.902073104630347</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>62.611798628922756</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>71.06372646192176</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>65.854501378203594</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>57.913873393005431</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>67.703940975988786</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>62.642462350993355</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>39.805362318466557</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>62.224297162431427</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>55.519036059072008</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>45.876060714702433</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>75.659243793325658</v>
@@ -743,55 +629,55 @@
         <v>66.810870935038906</v>
       </c>
       <c r="AA3">
-        <v>68.006398732243269</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>65.738126781843732</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>57.216878965281815</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>72.686947994796526</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>51.814865226306146</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>61.196691090252713</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>52.832989322811173</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>68.199504559276164</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>90.980048904285354</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>58.155890406930638</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>63.980062456639573</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>67.951756216136388</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>66.918869894826315</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>44.690685741772199</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>66.564143143000535</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>55.912878858752123</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>53.826365169360038</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>85.831087089272984</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_length_GM_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_length_GM_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>63.552911159159365</v>
+        <v>47.597757901346469</v>
       </c>
       <c r="C2">
-        <v>64.374358873706029</v>
+        <v>55.718370135679095</v>
       </c>
       <c r="D2">
-        <v>53.96103079990985</v>
+        <v>50.557737295124724</v>
       </c>
       <c r="E2">
-        <v>69.5065615928618</v>
+        <v>56.125127876082288</v>
       </c>
       <c r="F2">
         <v>44.024704806425575</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>65.724717373715237</v>
+        <v>44.981597518379402</v>
       </c>
       <c r="C3">
-        <v>59.117552413188378</v>
+        <v>45.876060714702433</v>
       </c>
       <c r="D3">
-        <v>58.478053757732667</v>
+        <v>45.291664428454979</v>
       </c>
       <c r="E3">
-        <v>63.876193213753389</v>
+        <v>55.362706001604877</v>
       </c>
       <c r="F3">
         <v>43.148243873184818</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_length_GM_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_length_GM_common_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>63.552911159159365</v>
+        <v>61.600287104867796</v>
       </c>
       <c r="C2">
-        <v>64.374358873706029</v>
+        <v>47.597757901346469</v>
       </c>
       <c r="D2">
-        <v>53.96103079990985</v>
+        <v>61.810427516813675</v>
       </c>
       <c r="E2">
-        <v>69.5065615928618</v>
+        <v>50.557737295124724</v>
       </c>
       <c r="F2">
         <v>44.024704806425575</v>
@@ -670,16 +665,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>65.724717373715237</v>
+        <v>62.642462350993355</v>
       </c>
       <c r="C3">
-        <v>59.117552413188378</v>
+        <v>44.981597518379402</v>
       </c>
       <c r="D3">
-        <v>58.478053757732667</v>
+        <v>66.918869894826315</v>
       </c>
       <c r="E3">
-        <v>70.654667803298096</v>
+        <v>45.291664428454979</v>
       </c>
       <c r="F3">
         <v>43.148243873184818</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_length_GM_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_length_GM_common_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,151 +513,151 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>63.552911162808869</v>
+      </c>
+      <c r="C2">
+        <v>64.374358867058703</v>
+      </c>
+      <c r="D2">
+        <v>53.961030787166294</v>
+      </c>
+      <c r="E2">
+        <v>69.5065615841647</v>
+      </c>
+      <c r="F2">
+        <v>44.024704791475507</v>
+      </c>
+      <c r="G2">
+        <v>59.261007247756062</v>
+      </c>
+      <c r="H2">
+        <v>48.714950248012023</v>
+      </c>
+      <c r="I2">
+        <v>63.392316399386516</v>
+      </c>
+      <c r="J2">
+        <v>67.689948516492393</v>
+      </c>
+      <c r="K2">
+        <v>54.993783796796613</v>
+      </c>
+      <c r="L2">
+        <v>54.37459174315353</v>
+      </c>
+      <c r="M2">
+        <v>72.607258542684463</v>
+      </c>
+      <c r="N2">
         <v>61.600287104867796</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>47.597757901346469</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>62.017265129565935</v>
+      </c>
+      <c r="Q2">
+        <v>61.957572177638397</v>
+      </c>
+      <c r="R2">
+        <v>55.718370135679095</v>
+      </c>
+      <c r="T2">
+        <v>62.320917255664554</v>
+      </c>
+      <c r="U2">
+        <v>59.205030949266856</v>
+      </c>
+      <c r="V2">
+        <v>53.439680232872178</v>
+      </c>
+      <c r="W2">
+        <v>44.150523392974904</v>
+      </c>
+      <c r="X2">
+        <v>56.768514434865892</v>
+      </c>
+      <c r="Y2">
+        <v>60.75492960008085</v>
+      </c>
+      <c r="Z2">
+        <v>61.626800735623092</v>
+      </c>
+      <c r="AA2">
+        <v>68.574096871624789</v>
+      </c>
+      <c r="AB2">
+        <v>71.636491331626559</v>
+      </c>
+      <c r="AC2">
+        <v>51.011550653960199</v>
+      </c>
+      <c r="AD2">
+        <v>71.68498673168267</v>
+      </c>
+      <c r="AE2">
+        <v>50.326180178105076</v>
+      </c>
+      <c r="AF2">
+        <v>59.419836250143881</v>
+      </c>
+      <c r="AG2">
+        <v>50.502075093369697</v>
+      </c>
+      <c r="AH2">
+        <v>61.682330451114794</v>
+      </c>
+      <c r="AI2">
+        <v>74.478502033228807</v>
+      </c>
+      <c r="AJ2">
+        <v>56.472142350914041</v>
+      </c>
+      <c r="AK2">
+        <v>57.765790037198954</v>
+      </c>
+      <c r="AL2">
+        <v>69.180338669635233</v>
+      </c>
+      <c r="AM2">
         <v>61.810427516813675</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>50.557737295124724</v>
       </c>
-      <c r="F2">
-        <v>44.024704806425575</v>
-      </c>
-      <c r="G2">
-        <v>59.261007246175396</v>
-      </c>
-      <c r="H2">
-        <v>48.71495025450411</v>
-      </c>
-      <c r="I2">
-        <v>63.392316412546336</v>
-      </c>
-      <c r="J2">
-        <v>67.689948526458736</v>
-      </c>
-      <c r="K2">
-        <v>54.993783808878689</v>
-      </c>
-      <c r="L2">
-        <v>54.374591753003259</v>
-      </c>
-      <c r="M2">
-        <v>72.607258534798447</v>
-      </c>
-      <c r="N2">
-        <v>61.600287111420869</v>
-      </c>
-      <c r="O2">
-        <v>47.597757918143117</v>
-      </c>
-      <c r="P2">
-        <v>62.017265127434605</v>
-      </c>
-      <c r="Q2">
-        <v>61.957572183659181</v>
-      </c>
-      <c r="R2">
-        <v>55.718370157078617</v>
-      </c>
-      <c r="T2">
-        <v>62.32091725711377</v>
-      </c>
-      <c r="U2">
-        <v>59.205030969787813</v>
-      </c>
-      <c r="V2">
-        <v>53.439680262211105</v>
-      </c>
-      <c r="W2">
-        <v>44.150523401270718</v>
-      </c>
-      <c r="X2">
-        <v>56.768514437225392</v>
-      </c>
-      <c r="Y2">
-        <v>60.75492961617136</v>
-      </c>
-      <c r="Z2">
-        <v>61.626800756371836</v>
-      </c>
-      <c r="AA2">
-        <v>68.57409688824302</v>
-      </c>
-      <c r="AB2">
-        <v>71.636491359061097</v>
-      </c>
-      <c r="AC2">
-        <v>51.011550665775061</v>
-      </c>
-      <c r="AD2">
-        <v>71.684986763114608</v>
-      </c>
-      <c r="AE2">
-        <v>50.326180192172956</v>
-      </c>
-      <c r="AF2">
-        <v>59.419836263858386</v>
-      </c>
-      <c r="AG2">
-        <v>50.502075107350358</v>
-      </c>
-      <c r="AH2">
-        <v>61.682330466245077</v>
-      </c>
-      <c r="AI2">
-        <v>74.478502059805962</v>
-      </c>
-      <c r="AJ2">
-        <v>56.47214235948816</v>
-      </c>
-      <c r="AK2">
-        <v>57.765790049663622</v>
-      </c>
-      <c r="AL2">
-        <v>69.180338682776465</v>
-      </c>
-      <c r="AM2">
-        <v>61.810427529768461</v>
-      </c>
-      <c r="AN2">
-        <v>50.557737315809845</v>
-      </c>
       <c r="AO2">
-        <v>66.455507270896589</v>
+        <v>66.455507260907368</v>
       </c>
       <c r="AP2">
-        <v>69.349268401511551</v>
+        <v>69.34926838142033</v>
       </c>
       <c r="AQ2">
-        <v>56.125127888681369</v>
+        <v>56.125127876082288</v>
       </c>
       <c r="AR2">
-        <v>82.520783774805111</v>
+        <v>82.520783776404258</v>
       </c>
       <c r="AS2">
-        <v>66.137130860820747</v>
+        <v>66.137130838751602</v>
       </c>
       <c r="AT2">
-        <v>66.357901585634806</v>
+        <v>66.357901568511068</v>
       </c>
       <c r="AU2">
-        <v>53.075776806665679</v>
+        <v>53.075776785112531</v>
       </c>
       <c r="AV2">
-        <v>50.251025837293184</v>
+        <v>50.251025811728496</v>
       </c>
       <c r="AW2">
-        <v>56.085993061486469</v>
+        <v>56.085993043515323</v>
       </c>
       <c r="AX2">
-        <v>64.748127432271033</v>
+        <v>64.748127408898569</v>
       </c>
       <c r="AY2">
-        <v>67.368940248630281</v>
+        <v>67.368940230342943</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +665,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>65.724717363904517</v>
+      </c>
+      <c r="C3">
+        <v>59.117552394140667</v>
+      </c>
+      <c r="D3">
+        <v>58.478053728291606</v>
+      </c>
+      <c r="E3">
+        <v>70.654667784409483</v>
+      </c>
+      <c r="F3">
+        <v>43.148243859797404</v>
+      </c>
+      <c r="G3">
+        <v>59.992877301538357</v>
+      </c>
+      <c r="H3">
+        <v>43.902073104630347</v>
+      </c>
+      <c r="I3">
+        <v>62.611798628922756</v>
+      </c>
+      <c r="J3">
+        <v>71.06372646192176</v>
+      </c>
+      <c r="K3">
+        <v>64.381763825662404</v>
+      </c>
+      <c r="L3">
+        <v>57.913873393005431</v>
+      </c>
+      <c r="M3">
+        <v>62.996278778930659</v>
+      </c>
+      <c r="N3">
         <v>62.642462350993355</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>44.981597518379402</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>62.224297162431427</v>
+      </c>
+      <c r="Q3">
+        <v>55.519036059072008</v>
+      </c>
+      <c r="R3">
+        <v>45.876060714702433</v>
+      </c>
+      <c r="S3">
+        <v>75.659243793325658</v>
+      </c>
+      <c r="T3">
+        <v>65.33215047782474</v>
+      </c>
+      <c r="U3">
+        <v>63.487888962725677</v>
+      </c>
+      <c r="V3">
+        <v>58.90208431633522</v>
+      </c>
+      <c r="W3">
+        <v>50.071685421474946</v>
+      </c>
+      <c r="X3">
+        <v>51.372413247150035</v>
+      </c>
+      <c r="Y3">
+        <v>69.976747675925523</v>
+      </c>
+      <c r="Z3">
+        <v>66.810870935038906</v>
+      </c>
+      <c r="AA3">
+        <v>68.006398732243269</v>
+      </c>
+      <c r="AB3">
+        <v>65.738126781843732</v>
+      </c>
+      <c r="AC3">
+        <v>57.216878965281815</v>
+      </c>
+      <c r="AD3">
+        <v>72.686947994796526</v>
+      </c>
+      <c r="AE3">
+        <v>51.814865226306146</v>
+      </c>
+      <c r="AF3">
+        <v>61.196691090252713</v>
+      </c>
+      <c r="AG3">
+        <v>52.832989322811173</v>
+      </c>
+      <c r="AH3">
+        <v>68.199504559276164</v>
+      </c>
+      <c r="AI3">
+        <v>68.282247213215982</v>
+      </c>
+      <c r="AJ3">
+        <v>58.155890406930638</v>
+      </c>
+      <c r="AK3">
+        <v>63.980062456639573</v>
+      </c>
+      <c r="AL3">
+        <v>67.951756216136388</v>
+      </c>
+      <c r="AM3">
         <v>66.918869894826315</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>45.291664428454979</v>
       </c>
-      <c r="F3">
-        <v>43.148243873184818</v>
-      </c>
-      <c r="G3">
-        <v>59.992877310076643</v>
-      </c>
-      <c r="H3">
-        <v>43.902073112473062</v>
-      </c>
-      <c r="I3">
-        <v>62.611798637338339</v>
-      </c>
-      <c r="J3">
-        <v>71.063726466802507</v>
-      </c>
-      <c r="K3">
-        <v>64.381763833635802</v>
-      </c>
-      <c r="L3">
-        <v>57.91387340211908</v>
-      </c>
-      <c r="M3">
-        <v>62.99648513328831</v>
-      </c>
-      <c r="N3">
-        <v>62.642462365007731</v>
-      </c>
-      <c r="O3">
-        <v>44.981597559362747</v>
-      </c>
-      <c r="P3">
-        <v>62.224297190756204</v>
-      </c>
-      <c r="Q3">
-        <v>55.519036066566414</v>
-      </c>
-      <c r="R3">
-        <v>45.876060725722226</v>
-      </c>
-      <c r="S3">
-        <v>75.659243799494334</v>
-      </c>
-      <c r="T3">
-        <v>65.332150492783711</v>
-      </c>
-      <c r="U3">
-        <v>63.487888975359738</v>
-      </c>
-      <c r="V3">
-        <v>58.902084318903697</v>
-      </c>
-      <c r="W3">
-        <v>50.071685432460889</v>
-      </c>
-      <c r="X3">
-        <v>51.372413257743325</v>
-      </c>
-      <c r="Y3">
-        <v>69.976747698091543</v>
-      </c>
-      <c r="Z3">
-        <v>66.810870958005069</v>
-      </c>
-      <c r="AA3">
-        <v>68.006398750730227</v>
-      </c>
-      <c r="AB3">
-        <v>65.738126805921411</v>
-      </c>
-      <c r="AC3">
-        <v>57.216878976520505</v>
-      </c>
-      <c r="AD3">
-        <v>72.686948013660881</v>
-      </c>
-      <c r="AE3">
-        <v>51.814865233792368</v>
-      </c>
-      <c r="AF3">
-        <v>61.196691106625877</v>
-      </c>
-      <c r="AG3">
-        <v>52.832989334270351</v>
-      </c>
-      <c r="AH3">
-        <v>68.199504573432407</v>
-      </c>
-      <c r="AI3">
-        <v>68.28224724082942</v>
-      </c>
-      <c r="AJ3">
-        <v>58.155890415366294</v>
-      </c>
-      <c r="AK3">
-        <v>63.980062478655938</v>
-      </c>
-      <c r="AL3">
-        <v>67.951756241184327</v>
-      </c>
-      <c r="AM3">
-        <v>66.918869921896217</v>
-      </c>
-      <c r="AN3">
-        <v>45.291664441214913</v>
-      </c>
       <c r="AO3">
-        <v>66.564143184682862</v>
+        <v>66.564143143000535</v>
       </c>
       <c r="AP3">
-        <v>55.912878875669882</v>
+        <v>55.912878858752123</v>
       </c>
       <c r="AQ3">
-        <v>55.362706006123602</v>
+        <v>55.362706001604877</v>
       </c>
       <c r="AR3">
-        <v>85.831087091976954</v>
+        <v>85.831087089272984</v>
       </c>
       <c r="AS3">
-        <v>61.299488666816544</v>
+        <v>61.29948865268878</v>
       </c>
       <c r="AT3">
-        <v>64.787703692516516</v>
+        <v>64.78770366485773</v>
       </c>
       <c r="AU3">
-        <v>57.172371639787343</v>
+        <v>57.172371657696459</v>
       </c>
       <c r="AV3">
-        <v>49.188770375242143</v>
+        <v>49.188770356685637</v>
       </c>
       <c r="AW3">
-        <v>53.325522473133333</v>
+        <v>53.325522456994875</v>
       </c>
       <c r="AX3">
-        <v>61.171954832669265</v>
+        <v>61.171954815773375</v>
       </c>
       <c r="AY3">
-        <v>74.31454459245397</v>
+        <v>74.314544561676655</v>
       </c>
     </row>
   </sheetData>
